--- a/output/groupings_dems_impeachment.xlsx
+++ b/output/groupings_dems_impeachment.xlsx
@@ -14,6 +14,11 @@
     <sheet name="rural_morethanfifth" sheetId="5" r:id="rId5"/>
     <sheet name="margin_5_or_less" sheetId="6" r:id="rId6"/>
     <sheet name="top_trump_dists" sheetId="7" r:id="rId7"/>
+    <sheet name="sept_daily_allyes" sheetId="8" r:id="rId8"/>
+    <sheet name="sept_daily_prezresults16" sheetId="9" r:id="rId9"/>
+    <sheet name="sept_daily_college" sheetId="10" r:id="rId10"/>
+    <sheet name="sept_daily_gdp" sheetId="11" r:id="rId11"/>
+    <sheet name="full_list_of_nos" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -449,6 +454,2442 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date_exact</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>pct_bachelors_compared_to_national</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>43713</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>43719</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>43720</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>43730</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>43731</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>43733</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>43733</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>43734</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>43734</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>43735</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date_exact</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>gdp_above_national</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>43713</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>43719</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>43720</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>43720</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>43730</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>43731</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>43731</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>43733</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>43733</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>43734</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>43734</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>43735</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AP13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="20.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>for_impeachment</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>last_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>middle_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>party</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>date_exact</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>date_approx_month</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>date_comb</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>date_month</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>date_year</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>D_pct_2018</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>R_pct_2018</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>winner_2018</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>margin_2018</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>margin_flag</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>flip_2018</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>house_dist</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>keyrace_rating</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>median_income</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>median_income_compared_to_national</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>median_age</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>median_age_compared_to_national</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>pct_nonwhite</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>pct_nonwhite_compared_to_national</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>pct_bachelors</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>pct_bachelors_compared_to_national</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>rural_pop_above20pct</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>gdp_above_national</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>clinton_percent</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>trump_percent</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>obama_percent</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>romney_percent</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>p16winningparty</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>p12winningparty</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>cnn_blurb</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>GEOID</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>fec_candidate_id</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>trump_margin</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Brindisi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M2">
+        <v>50.9</v>
+      </c>
+      <c r="N2">
+        <v>49.1</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P2">
+        <v>1.8</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NY-22</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>tossup</t>
+        </is>
+      </c>
+      <c r="U2">
+        <v>708362</v>
+      </c>
+      <c r="V2">
+        <v>50059</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="X2">
+        <v>40.9</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z2">
+        <v>12.032</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AB2">
+        <v>24.084</v>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AF2">
+        <v>38.9</v>
+      </c>
+      <c r="AG2">
+        <v>54.2</v>
+      </c>
+      <c r="AH2">
+        <v>48.7</v>
+      </c>
+      <c r="AI2">
+        <v>49.1</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>3622</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>H8NY22151</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>B001308</t>
+        </is>
+      </c>
+      <c r="AP2">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cunningham</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Joe</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3">
+        <v>50.7</v>
+      </c>
+      <c r="N3">
+        <v>49.3</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P3">
+        <v>1.4</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>SC-01</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>lean republican</t>
+        </is>
+      </c>
+      <c r="U3">
+        <v>731010</v>
+      </c>
+      <c r="V3">
+        <v>61354</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="X3">
+        <v>38.3</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z3">
+        <v>29.477</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AB3">
+        <v>38.326</v>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AF3">
+        <v>40.5</v>
+      </c>
+      <c r="AG3">
+        <v>53.2</v>
+      </c>
+      <c r="AH3">
+        <v>40.1</v>
+      </c>
+      <c r="AI3">
+        <v>58.4</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>4501</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>H8SC01116</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>C001122</t>
+        </is>
+      </c>
+      <c r="AP3">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Golden</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Jared</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4">
+        <v>50.6</v>
+      </c>
+      <c r="N4">
+        <v>49.4</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P4">
+        <v>1.2</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>ME-02</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>tossup</t>
+        </is>
+      </c>
+      <c r="U4">
+        <v>656786</v>
+      </c>
+      <c r="V4">
+        <v>44649</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="X4">
+        <v>44.3</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z4">
+        <v>5.679000000000002</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AB4">
+        <v>22.482</v>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AF4">
+        <v>41</v>
+      </c>
+      <c r="AG4">
+        <v>51.3</v>
+      </c>
+      <c r="AH4">
+        <v>52.8</v>
+      </c>
+      <c r="AI4">
+        <v>44.2</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>2302</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>H8ME02185</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>G000592</t>
+        </is>
+      </c>
+      <c r="AP4">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Kendra</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M5">
+        <v>50.7</v>
+      </c>
+      <c r="N5">
+        <v>49.3</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P5">
+        <v>1.4</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>OK-05</t>
+        </is>
+      </c>
+      <c r="U5">
+        <v>794991</v>
+      </c>
+      <c r="V5">
+        <v>47442</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="X5">
+        <v>34.6</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="Z5">
+        <v>41.747</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AB5">
+        <v>29.763</v>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AF5">
+        <v>39.7</v>
+      </c>
+      <c r="AG5">
+        <v>53.3</v>
+      </c>
+      <c r="AH5">
+        <v>40.8</v>
+      </c>
+      <c r="AI5">
+        <v>59.2</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>H8OK05109</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>H001083</t>
+        </is>
+      </c>
+      <c r="AP5">
+        <v>13.59999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Eddie</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Bernice</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M6">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P6">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>TX-30</t>
+        </is>
+      </c>
+      <c r="U6">
+        <v>745784</v>
+      </c>
+      <c r="V6">
+        <v>42708</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="X6">
+        <v>32.8</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="Z6">
+        <v>84.529</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AB6">
+        <v>19.847</v>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AF6">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="AG6">
+        <v>18.3</v>
+      </c>
+      <c r="AH6">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="AI6">
+        <v>19.6</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>4830</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>H2TX00015</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>J000126</t>
+        </is>
+      </c>
+      <c r="AP6">
+        <v>-60.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kind</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7">
+        <v>59.7</v>
+      </c>
+      <c r="N7">
+        <v>40.3</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P7">
+        <v>19.4</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>WI-03</t>
+        </is>
+      </c>
+      <c r="U7">
+        <v>718576</v>
+      </c>
+      <c r="V7">
+        <v>50985</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="X7">
+        <v>38.4</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z7">
+        <v>7.597999999999999</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AB7">
+        <v>24.286</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AF7">
+        <v>44.3</v>
+      </c>
+      <c r="AG7">
+        <v>48.8</v>
+      </c>
+      <c r="AH7">
+        <v>54.7</v>
+      </c>
+      <c r="AI7">
+        <v>43.7</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>5503</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>H6WI03099</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>K000188</t>
+        </is>
+      </c>
+      <c r="AP7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>McAdams</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M8">
+        <v>50.1</v>
+      </c>
+      <c r="N8">
+        <v>49.9</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P8">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>UT-04</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>tossup</t>
+        </is>
+      </c>
+      <c r="U8">
+        <v>757607</v>
+      </c>
+      <c r="V8">
+        <v>65081</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="X8">
+        <v>30.8</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="Z8">
+        <v>24.46599999999999</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AB8">
+        <v>28.153</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AF8">
+        <v>32.4</v>
+      </c>
+      <c r="AG8">
+        <v>39.1</v>
+      </c>
+      <c r="AH8">
+        <v>30.4</v>
+      </c>
+      <c r="AI8">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>4904</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>H8UT04053</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>M001209</t>
+        </is>
+      </c>
+      <c r="AP8">
+        <v>6.700000000000003</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>McBath</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Lucy</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M9">
+        <v>50.5</v>
+      </c>
+      <c r="N9">
+        <v>49.5</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>GA-06</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>lean republican</t>
+        </is>
+      </c>
+      <c r="U9">
+        <v>731334</v>
+      </c>
+      <c r="V9">
+        <v>82390</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="X9">
+        <v>37.7</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z9">
+        <v>39.012</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AB9">
+        <v>59.079</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AF9">
+        <v>46.8</v>
+      </c>
+      <c r="AG9">
+        <v>48.3</v>
+      </c>
+      <c r="AH9">
+        <v>37.4</v>
+      </c>
+      <c r="AI9">
+        <v>60.9</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>H8GA06393</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>M001208</t>
+        </is>
+      </c>
+      <c r="AP9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Peterson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>C.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10">
+        <v>52.1</v>
+      </c>
+      <c r="N10">
+        <v>47.9</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P10">
+        <v>4.2</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>MN-07</t>
+        </is>
+      </c>
+      <c r="U10">
+        <v>663338</v>
+      </c>
+      <c r="V10">
+        <v>52930</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="X10">
+        <v>40.7</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z10">
+        <v>10.608</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AB10">
+        <v>21.486</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AF10">
+        <v>30.8</v>
+      </c>
+      <c r="AG10">
+        <v>61.4</v>
+      </c>
+      <c r="AH10">
+        <v>44</v>
+      </c>
+      <c r="AI10">
+        <v>53.7</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>2707</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>H2MN07014</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>P000258</t>
+        </is>
+      </c>
+      <c r="AP10">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rose</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M11">
+        <v>53</v>
+      </c>
+      <c r="N11">
+        <v>46.6</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P11">
+        <v>6.4</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NY-11</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>lean republican</t>
+        </is>
+      </c>
+      <c r="U11">
+        <v>729159</v>
+      </c>
+      <c r="V11">
+        <v>66890</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="X11">
+        <v>39.2</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z11">
+        <v>38.413</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AB11">
+        <v>33.426</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AF11">
+        <v>43.5</v>
+      </c>
+      <c r="AG11">
+        <v>53.3</v>
+      </c>
+      <c r="AH11">
+        <v>51.6</v>
+      </c>
+      <c r="AI11">
+        <v>47.2</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>H8NY11113</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>R000613</t>
+        </is>
+      </c>
+      <c r="AP11">
+        <v>9.799999999999997</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Torres Small</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Xochitl</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M12">
+        <v>50.9</v>
+      </c>
+      <c r="N12">
+        <v>49.1</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P12">
+        <v>1.8</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NM-02</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>tossup</t>
+        </is>
+      </c>
+      <c r="U12">
+        <v>698524</v>
+      </c>
+      <c r="V12">
+        <v>41600</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="X12">
+        <v>35.9</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="Z12">
+        <v>62.273</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AB12">
+        <v>20.589</v>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AF12">
+        <v>39.9</v>
+      </c>
+      <c r="AG12">
+        <v>50.1</v>
+      </c>
+      <c r="AH12">
+        <v>44.9</v>
+      </c>
+      <c r="AI12">
+        <v>51.7</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>3502</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>H8NM02248</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>T000484</t>
+        </is>
+      </c>
+      <c r="AP12">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Van Drew</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Jefferson</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M13">
+        <v>52.9</v>
+      </c>
+      <c r="N13">
+        <v>45.2</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P13">
+        <v>7.7</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>NJ-02</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>likely democratic</t>
+        </is>
+      </c>
+      <c r="U13">
+        <v>729824</v>
+      </c>
+      <c r="V13">
+        <v>59785</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="X13">
+        <v>41.4</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z13">
+        <v>33.95399999999999</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AB13">
+        <v>24.78</v>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AF13">
+        <v>46</v>
+      </c>
+      <c r="AG13">
+        <v>50.6</v>
+      </c>
+      <c r="AH13">
+        <v>53.7</v>
+      </c>
+      <c r="AI13">
+        <v>45.5</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>3402</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>H8NJ02166</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>V000133</t>
+        </is>
+      </c>
+      <c r="AP13">
+        <v>4.600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
@@ -911,7 +3352,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AP26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,6 +3569,11 @@
           <t>id</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>trump_margin</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1276,6 +3722,9 @@
           <t>P000258</t>
         </is>
       </c>
+      <c r="AP2">
+        <v>30.6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1424,21 +3873,24 @@
           <t>B001308</t>
         </is>
       </c>
+      <c r="AP3">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cartwright</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Matt</t>
+          <t>Kendra</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1448,31 +3900,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H4" s="2">
-        <v>43732</v>
-      </c>
-      <c r="J4" s="2">
-        <v>43732</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <v>2019</v>
+          <t>5</t>
+        </is>
       </c>
       <c r="M4">
-        <v>54.6</v>
+        <v>50.7</v>
       </c>
       <c r="N4">
-        <v>45.4</v>
+        <v>49.3</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1480,33 +3920,28 @@
         </is>
       </c>
       <c r="P4">
-        <v>9.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>more_than_5_points</t>
+          <t>5_points_or_less</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>PA-08</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>likely democratic</t>
+          <t>OK-05</t>
         </is>
       </c>
       <c r="U4">
-        <v>698704</v>
+        <v>794991</v>
       </c>
       <c r="V4">
-        <v>50550.07843</v>
+        <v>47442</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -1514,27 +3949,32 @@
         </is>
       </c>
       <c r="X4">
-        <v>43.28938053</v>
+        <v>34.6</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="Z4">
-        <v>17.85262429</v>
+        <v>41.747</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AB4">
-        <v>23.4098346</v>
+        <v>29.763</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1543,16 +3983,16 @@
         </is>
       </c>
       <c r="AF4">
-        <v>43.7</v>
+        <v>39.7</v>
       </c>
       <c r="AG4">
         <v>53.3</v>
       </c>
       <c r="AH4">
-        <v>55.3</v>
+        <v>40.8</v>
       </c>
       <c r="AI4">
-        <v>43.4</v>
+        <v>59.2</v>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
@@ -1561,28 +4001,26 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>"We need to get to the bottom of these serious allegations through comprehensive impeachment proceedings and document production," he tweeted on September 24. "Whether such hearings result in actual impeachment of the president and/or senior cabinet officials remains to be seen."</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>4208</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>H2PA17079</t>
+          <t>H8OK05109</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>C001090</t>
-        </is>
+          <t>H001083</t>
+        </is>
+      </c>
+      <c r="AP4">
+        <v>13.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1593,12 +4031,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>Cunningham</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kendra</t>
+          <t>Joe</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1608,12 +4046,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M5">
@@ -1642,42 +4080,47 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>OK-05</t>
+          <t>SC-01</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>lean republican</t>
         </is>
       </c>
       <c r="U5">
-        <v>794991</v>
+        <v>731010</v>
       </c>
       <c r="V5">
-        <v>47442</v>
+        <v>61354</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="X5">
-        <v>34.6</v>
+        <v>38.3</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="Z5">
-        <v>41.747</v>
+        <v>29.477</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AB5">
-        <v>29.763</v>
+        <v>38.326</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1687,20 +4130,20 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AF5">
-        <v>39.7</v>
+        <v>40.5</v>
       </c>
       <c r="AG5">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="AH5">
-        <v>40.8</v>
+        <v>40.1</v>
       </c>
       <c r="AI5">
-        <v>59.2</v>
+        <v>58.4</v>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
@@ -1714,18 +4157,21 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>4501</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>H8OK05109</t>
+          <t>H8SC01116</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>H001083</t>
-        </is>
+          <t>C001122</t>
+        </is>
+      </c>
+      <c r="AP5">
+        <v>12.7</v>
       </c>
     </row>
     <row r="6">
@@ -1736,12 +4182,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Golden</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Jared</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1751,19 +4197,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>50.6</v>
       </c>
       <c r="N6">
-        <v>46.6</v>
+        <v>49.4</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1771,11 +4217,11 @@
         </is>
       </c>
       <c r="P6">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>more_than_5_points</t>
+          <t>5_points_or_less</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1785,27 +4231,27 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>NY-11</t>
+          <t>ME-02</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>lean republican</t>
+          <t>tossup</t>
         </is>
       </c>
       <c r="U6">
-        <v>729159</v>
+        <v>656786</v>
       </c>
       <c r="V6">
-        <v>66890</v>
+        <v>44649</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="X6">
-        <v>39.2</v>
+        <v>44.3</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
@@ -1813,24 +4259,24 @@
         </is>
       </c>
       <c r="Z6">
-        <v>38.413</v>
+        <v>5.679000000000002</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AB6">
-        <v>33.426</v>
+        <v>22.482</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1839,16 +4285,16 @@
         </is>
       </c>
       <c r="AF6">
-        <v>43.5</v>
+        <v>41</v>
       </c>
       <c r="AG6">
-        <v>53.3</v>
+        <v>51.3</v>
       </c>
       <c r="AH6">
-        <v>51.6</v>
+        <v>52.8</v>
       </c>
       <c r="AI6">
-        <v>47.2</v>
+        <v>44.2</v>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
@@ -1862,18 +4308,21 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>3611</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>H8NY11113</t>
+          <t>H8ME02185</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>R000613</t>
-        </is>
+          <t>G000592</t>
+        </is>
+      </c>
+      <c r="AP6">
+        <v>10.3</v>
       </c>
     </row>
     <row r="7">
@@ -1884,12 +4333,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cunningham</t>
+          <t>Torres Small</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Joe</t>
+          <t>Xochitl</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1899,19 +4348,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M7">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="N7">
-        <v>49.3</v>
+        <v>49.1</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1919,7 +4368,7 @@
         </is>
       </c>
       <c r="P7">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1933,52 +4382,52 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>SC-01</t>
+          <t>NM-02</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>lean republican</t>
+          <t>tossup</t>
         </is>
       </c>
       <c r="U7">
-        <v>731010</v>
+        <v>698524</v>
       </c>
       <c r="V7">
-        <v>61354</v>
+        <v>41600</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="X7">
-        <v>38.3</v>
+        <v>35.9</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="Z7">
-        <v>29.477</v>
+        <v>62.273</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AB7">
-        <v>38.326</v>
+        <v>20.589</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1987,16 +4436,16 @@
         </is>
       </c>
       <c r="AF7">
-        <v>40.5</v>
+        <v>39.9</v>
       </c>
       <c r="AG7">
-        <v>53.2</v>
+        <v>50.1</v>
       </c>
       <c r="AH7">
-        <v>40.1</v>
+        <v>44.9</v>
       </c>
       <c r="AI7">
-        <v>58.4</v>
+        <v>51.7</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -2010,34 +4459,37 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>4501</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>H8SC01116</t>
+          <t>H8NM02248</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>C001122</t>
-        </is>
+          <t>T000484</t>
+        </is>
+      </c>
+      <c r="AP7">
+        <v>10.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Andy</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2047,31 +4499,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H8" s="2">
-        <v>43732</v>
-      </c>
-      <c r="J8" s="2">
-        <v>43732</v>
-      </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>2019</v>
+          <t>11</t>
+        </is>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N8">
-        <v>48.7</v>
+        <v>46.6</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2079,11 +4519,11 @@
         </is>
       </c>
       <c r="P8">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>5_points_or_less</t>
+          <t>more_than_5_points</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2093,19 +4533,19 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>NJ-03</t>
+          <t>NY-11</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>tossup</t>
+          <t>lean republican</t>
         </is>
       </c>
       <c r="U8">
-        <v>736722</v>
+        <v>729159</v>
       </c>
       <c r="V8">
-        <v>74644</v>
+        <v>66890</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -2113,7 +4553,7 @@
         </is>
       </c>
       <c r="X8">
-        <v>43.2</v>
+        <v>39.2</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
@@ -2121,15 +4561,15 @@
         </is>
       </c>
       <c r="Z8">
-        <v>23.96899999999999</v>
+        <v>38.413</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AB8">
-        <v>32.755</v>
+        <v>33.426</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2147,16 +4587,16 @@
         </is>
       </c>
       <c r="AF8">
-        <v>45.2</v>
+        <v>43.5</v>
       </c>
       <c r="AG8">
-        <v>51.4</v>
+        <v>53.3</v>
       </c>
       <c r="AH8">
-        <v>52.3</v>
+        <v>51.6</v>
       </c>
       <c r="AI8">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -2168,41 +4608,39 @@
           <t>D</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>Kim said in a statement on September 24, "By urging the Ukrainian government to take action to influence our Democracy, Trump has violated that power and the trust of the American people. If the facts are corroborated, that violation, and my understanding of its implications, has led me to come to the conclusion that the President has committed an impeachable offense."</t>
-        </is>
-      </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>3403</t>
+          <t>3611</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>H8NJ03206</t>
+          <t>H8NY11113</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>K000394</t>
-        </is>
+          <t>R000613</t>
+        </is>
+      </c>
+      <c r="AP8">
+        <v>9.799999999999997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Golden</t>
+          <t>Cartwright</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jared</t>
+          <t>Matt</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2212,19 +4650,31 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H9" s="2">
+        <v>43732</v>
+      </c>
+      <c r="J9" s="2">
+        <v>43732</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>2019</v>
       </c>
       <c r="M9">
-        <v>50.6</v>
+        <v>54.6</v>
       </c>
       <c r="N9">
-        <v>49.4</v>
+        <v>45.4</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -2232,33 +4682,33 @@
         </is>
       </c>
       <c r="P9">
-        <v>1.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>5_points_or_less</t>
+          <t>more_than_5_points</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>ME-02</t>
+          <t>PA-08</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>tossup</t>
+          <t>likely democratic</t>
         </is>
       </c>
       <c r="U9">
-        <v>656786</v>
+        <v>698704</v>
       </c>
       <c r="V9">
-        <v>44649</v>
+        <v>50550.07843</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -2266,7 +4716,7 @@
         </is>
       </c>
       <c r="X9">
-        <v>44.3</v>
+        <v>43.28938053</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
@@ -2274,7 +4724,7 @@
         </is>
       </c>
       <c r="Z9">
-        <v>5.679000000000002</v>
+        <v>17.85262429</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -2282,34 +4732,29 @@
         </is>
       </c>
       <c r="AB9">
-        <v>22.482</v>
+        <v>23.4098346</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
           <t>ABOVE</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AF9">
-        <v>41</v>
+        <v>43.7</v>
       </c>
       <c r="AG9">
-        <v>51.3</v>
+        <v>53.3</v>
       </c>
       <c r="AH9">
-        <v>52.8</v>
+        <v>55.3</v>
       </c>
       <c r="AI9">
-        <v>44.2</v>
+        <v>43.4</v>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
@@ -2321,36 +4766,44 @@
           <t>D</t>
         </is>
       </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>"We need to get to the bottom of these serious allegations through comprehensive impeachment proceedings and document production," he tweeted on September 24. "Whether such hearings result in actual impeachment of the president and/or senior cabinet officials remains to be seen."</t>
+        </is>
+      </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>4208</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>H8ME02185</t>
+          <t>H2PA17079</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>G000592</t>
-        </is>
+          <t>C001090</t>
+        </is>
+      </c>
+      <c r="AP9">
+        <v>9.599999999999994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Van Drew</t>
+          <t>Delgado</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jefferson</t>
+          <t>Antonio</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2360,19 +4813,31 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H10" s="2">
+        <v>43732</v>
+      </c>
+      <c r="J10" s="2">
+        <v>43732</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>2019</v>
       </c>
       <c r="M10">
-        <v>52.9</v>
+        <v>51.4</v>
       </c>
       <c r="N10">
-        <v>45.2</v>
+        <v>46.2</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -2380,7 +4845,7 @@
         </is>
       </c>
       <c r="P10">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -2394,19 +4859,19 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>NJ-02</t>
+          <t>NY-19</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>likely democratic</t>
+          <t>tossup</t>
         </is>
       </c>
       <c r="U10">
-        <v>729824</v>
+        <v>707053</v>
       </c>
       <c r="V10">
-        <v>59785</v>
+        <v>58698</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -2414,7 +4879,7 @@
         </is>
       </c>
       <c r="X10">
-        <v>41.4</v>
+        <v>44.1</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
@@ -2422,7 +4887,7 @@
         </is>
       </c>
       <c r="Z10">
-        <v>33.95399999999999</v>
+        <v>14.74800000000001</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -2430,7 +4895,7 @@
         </is>
       </c>
       <c r="AB10">
-        <v>24.78</v>
+        <v>27.694</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2439,7 +4904,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -2448,16 +4913,16 @@
         </is>
       </c>
       <c r="AF10">
-        <v>46</v>
+        <v>43.5</v>
       </c>
       <c r="AG10">
-        <v>50.6</v>
+        <v>50.2</v>
       </c>
       <c r="AH10">
-        <v>53.7</v>
+        <v>52</v>
       </c>
       <c r="AI10">
-        <v>45.5</v>
+        <v>45.8</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -2469,36 +4934,45 @@
           <t>D</t>
         </is>
       </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Delgado became at least the ninth House Democrat to come out in support of impeachment after Trump acknowledged that his discussion in July with Ukraine's President referenced Biden._x000D_
+"The first responsibility of the President of the United States is to keep our country safe, but it has become clear that our president has placed his personal interests above the national security of our nation," Delgado tweeted on September 24. "I believe articles of impeachment are warranted."</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>3402</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>H8NJ02166</t>
+          <t>H8NY19181</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>V000133</t>
-        </is>
+          <t>D000630</t>
+        </is>
+      </c>
+      <c r="AP10">
+        <v>6.700000000000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Slotkin</t>
+          <t>McAdams</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Elissa</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2508,31 +4982,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H11" s="2">
-        <v>43731</v>
-      </c>
-      <c r="J11" s="2">
-        <v>43731</v>
-      </c>
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>2019</v>
+          <t>4</t>
+        </is>
       </c>
       <c r="M11">
-        <v>50.6</v>
+        <v>50.1</v>
       </c>
       <c r="N11">
-        <v>46.8</v>
+        <v>49.9</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -2540,7 +5002,7 @@
         </is>
       </c>
       <c r="P11">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -2554,7 +5016,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>MI-08</t>
+          <t>UT-04</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2563,10 +5025,10 @@
         </is>
       </c>
       <c r="U11">
-        <v>723429</v>
+        <v>757607</v>
       </c>
       <c r="V11">
-        <v>65205</v>
+        <v>65081</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -2574,15 +5036,15 @@
         </is>
       </c>
       <c r="X11">
-        <v>38.1</v>
+        <v>30.8</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="Z11">
-        <v>17.401</v>
+        <v>24.46599999999999</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
@@ -2590,16 +5052,16 @@
         </is>
       </c>
       <c r="AB11">
-        <v>39.415</v>
+        <v>28.153</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2608,16 +5070,16 @@
         </is>
       </c>
       <c r="AF11">
-        <v>43.8</v>
+        <v>32.4</v>
       </c>
       <c r="AG11">
-        <v>50.5</v>
+        <v>39.1</v>
       </c>
       <c r="AH11">
-        <v>47.9</v>
+        <v>30.4</v>
       </c>
       <c r="AI11">
-        <v>51.1</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -2629,25 +5091,23 @@
           <t>R</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>Slotkin and six other Democrats wrote in a Washington Post op-ed on September 23 that if allegations Trump pressured the Ukrainian president to investigate Joe Biden "are true, we believe these actions represent an impeachable offense. We do not arrive at this conclusion lightly, and we call on our colleagues in Congress to consider the use of all congressional authorities available to us, including the power of 'inherent contempt' and impeachment hearings, to address these new allegations, find the truth and protect our national security."</t>
-        </is>
-      </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>4904</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>H8MI08102</t>
+          <t>H8UT04053</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>S001208</t>
-        </is>
+          <t>M001209</t>
+        </is>
+      </c>
+      <c r="AP11">
+        <v>6.700000000000003</v>
       </c>
     </row>
     <row r="12">
@@ -2658,12 +5118,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Delgado</t>
+          <t>Slotkin</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Elissa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2673,19 +5133,19 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H12" s="2">
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="J12" s="2">
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="K12">
         <v>9</v>
@@ -2694,10 +5154,10 @@
         <v>2019</v>
       </c>
       <c r="M12">
-        <v>51.4</v>
+        <v>50.6</v>
       </c>
       <c r="N12">
-        <v>46.2</v>
+        <v>46.8</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -2705,11 +5165,11 @@
         </is>
       </c>
       <c r="P12">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>more_than_5_points</t>
+          <t>5_points_or_less</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2719,7 +5179,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>NY-19</t>
+          <t>MI-08</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2728,10 +5188,10 @@
         </is>
       </c>
       <c r="U12">
-        <v>707053</v>
+        <v>723429</v>
       </c>
       <c r="V12">
-        <v>58698</v>
+        <v>65205</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -2739,7 +5199,7 @@
         </is>
       </c>
       <c r="X12">
-        <v>44.1</v>
+        <v>38.1</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
@@ -2747,7 +5207,7 @@
         </is>
       </c>
       <c r="Z12">
-        <v>14.74800000000001</v>
+        <v>17.401</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
@@ -2755,11 +5215,11 @@
         </is>
       </c>
       <c r="AB12">
-        <v>27.694</v>
+        <v>39.415</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2769,20 +5229,20 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AF12">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="AG12">
-        <v>50.2</v>
+        <v>50.5</v>
       </c>
       <c r="AH12">
-        <v>52</v>
+        <v>47.9</v>
       </c>
       <c r="AI12">
-        <v>45.8</v>
+        <v>51.1</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -2791,29 +5251,31 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>Delgado became at least the ninth House Democrat to come out in support of impeachment after Trump acknowledged that his discussion in July with Ukraine's President referenced Biden._x000D_
-"The first responsibility of the President of the United States is to keep our country safe, but it has become clear that our president has placed his personal interests above the national security of our nation," Delgado tweeted on September 24. "I believe articles of impeachment are warranted."</t>
+          <t>Slotkin and six other Democrats wrote in a Washington Post op-ed on September 23 that if allegations Trump pressured the Ukrainian president to investigate Joe Biden "are true, we believe these actions represent an impeachable offense. We do not arrive at this conclusion lightly, and we call on our colleagues in Congress to consider the use of all congressional authorities available to us, including the power of 'inherent contempt' and impeachment hearings, to address these new allegations, find the truth and protect our national security."</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3619</t>
+          <t>2608</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>H8NY19181</t>
+          <t>H8MI08102</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>D000630</t>
-        </is>
+          <t>S001208</t>
+        </is>
+      </c>
+      <c r="AP12">
+        <v>6.700000000000003</v>
       </c>
     </row>
     <row r="13">
@@ -2980,21 +5442,24 @@
           <t>S001209</t>
         </is>
       </c>
+      <c r="AP13">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Torres Small</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Xochitl</t>
+          <t>Andy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3004,19 +5469,31 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H14" s="2">
+        <v>43732</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43732</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>2019</v>
       </c>
       <c r="M14">
-        <v>50.9</v>
+        <v>50</v>
       </c>
       <c r="N14">
-        <v>49.1</v>
+        <v>48.7</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -3024,7 +5501,7 @@
         </is>
       </c>
       <c r="P14">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -3038,7 +5515,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>NM-02</t>
+          <t>NJ-03</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -3047,43 +5524,43 @@
         </is>
       </c>
       <c r="U14">
-        <v>698524</v>
+        <v>736722</v>
       </c>
       <c r="V14">
-        <v>41600</v>
+        <v>74644</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="X14">
-        <v>35.9</v>
+        <v>43.2</v>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="Z14">
-        <v>62.273</v>
+        <v>23.96899999999999</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AB14">
-        <v>20.589</v>
+        <v>32.755</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -3092,16 +5569,16 @@
         </is>
       </c>
       <c r="AF14">
-        <v>39.9</v>
+        <v>45.2</v>
       </c>
       <c r="AG14">
-        <v>50.1</v>
+        <v>51.4</v>
       </c>
       <c r="AH14">
-        <v>44.9</v>
+        <v>52.3</v>
       </c>
       <c r="AI14">
-        <v>51.7</v>
+        <v>47.7</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -3110,39 +5587,47 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Kim said in a statement on September 24, "By urging the Ukrainian government to take action to influence our Democracy, Trump has violated that power and the trust of the American people. If the facts are corroborated, that violation, and my understanding of its implications, has led me to come to the conclusion that the President has committed an impeachable offense."</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>H8NM02248</t>
+          <t>H8NJ03206</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>T000484</t>
-        </is>
+          <t>K000394</t>
+        </is>
+      </c>
+      <c r="AP14">
+        <v>6.199999999999996</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lamb</t>
+          <t>Van Drew</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Conor</t>
+          <t>Jefferson</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3152,31 +5637,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="H15" s="2">
-        <v>43734</v>
-      </c>
-      <c r="J15" s="2">
-        <v>43734</v>
-      </c>
-      <c r="K15">
-        <v>9</v>
-      </c>
-      <c r="L15">
-        <v>2019</v>
+          <t>2</t>
+        </is>
       </c>
       <c r="M15">
-        <v>56.3</v>
+        <v>52.9</v>
       </c>
       <c r="N15">
-        <v>43.7</v>
+        <v>45.2</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -3184,7 +5657,7 @@
         </is>
       </c>
       <c r="P15">
-        <v>12.6</v>
+        <v>7.7</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -3198,19 +5671,19 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>PA-17</t>
+          <t>NJ-02</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>lean democratic</t>
+          <t>likely democratic</t>
         </is>
       </c>
       <c r="U15">
-        <v>709866</v>
+        <v>729824</v>
       </c>
       <c r="V15">
-        <v>65309.40037</v>
+        <v>59785</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -3218,7 +5691,7 @@
         </is>
       </c>
       <c r="X15">
-        <v>44.09304029</v>
+        <v>41.4</v>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
@@ -3226,7 +5699,7 @@
         </is>
       </c>
       <c r="Z15">
-        <v>11.70882955</v>
+        <v>33.95399999999999</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -3234,11 +5707,16 @@
         </is>
       </c>
       <c r="AB15">
-        <v>38.99641813</v>
+        <v>24.78</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -3247,16 +5725,16 @@
         </is>
       </c>
       <c r="AF15">
-        <v>46.8</v>
+        <v>46</v>
       </c>
       <c r="AG15">
-        <v>49.4</v>
+        <v>50.6</v>
       </c>
       <c r="AH15">
-        <v>47.2</v>
+        <v>53.7</v>
       </c>
       <c r="AI15">
-        <v>51.7</v>
+        <v>45.5</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -3265,44 +5743,42 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>"I absolutely support Chairman Schiff's investigation and everything that he's doing," Lamb told CNN's Chris Cuomo on September 26. "The speaker put the 'impeachment inquiry' label on that on Monday so that's what it is."</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>4217</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>H8PA18181</t>
+          <t>H8NJ02166</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>L000588</t>
-        </is>
+          <t>V000133</t>
+        </is>
+      </c>
+      <c r="AP15">
+        <v>4.600000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Stevens</t>
+          <t>Kind</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Haley</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3312,31 +5788,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>WI</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H16" s="2">
-        <v>43732</v>
-      </c>
-      <c r="J16" s="2">
-        <v>43732</v>
-      </c>
-      <c r="K16">
-        <v>9</v>
-      </c>
-      <c r="L16">
-        <v>2019</v>
+          <t>3</t>
+        </is>
       </c>
       <c r="M16">
-        <v>51.8</v>
+        <v>59.7</v>
       </c>
       <c r="N16">
-        <v>45.2</v>
+        <v>40.3</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -3344,7 +5808,7 @@
         </is>
       </c>
       <c r="P16">
-        <v>6.6</v>
+        <v>19.4</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -3353,32 +5817,27 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>MI-11</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>lean democratic</t>
+          <t>WI-03</t>
         </is>
       </c>
       <c r="U16">
-        <v>717277</v>
+        <v>718576</v>
       </c>
       <c r="V16">
-        <v>76851</v>
+        <v>50985</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="X16">
-        <v>41.2</v>
+        <v>38.4</v>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
@@ -3386,7 +5845,7 @@
         </is>
       </c>
       <c r="Z16">
-        <v>20.154</v>
+        <v>7.597999999999999</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
@@ -3394,34 +5853,34 @@
         </is>
       </c>
       <c r="AB16">
-        <v>45.843</v>
+        <v>24.286</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AF16">
-        <v>45</v>
+        <v>44.3</v>
       </c>
       <c r="AG16">
-        <v>49.4</v>
+        <v>48.8</v>
       </c>
       <c r="AH16">
-        <v>47</v>
+        <v>54.7</v>
       </c>
       <c r="AI16">
-        <v>52.4</v>
+        <v>43.7</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -3430,28 +5889,26 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>"President Trump may have used the power of his office to pressure a foreign head of state for his own personal political gain. If true, these actions represent an impeachable offense," she tweeted on September 24, also issuing a statement calling for "an impeachment inquiry."</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>2611</t>
+          <t>5503</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>H8MI11254</t>
+          <t>H6WI03099</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>S001215</t>
-        </is>
+          <t>K000188</t>
+        </is>
+      </c>
+      <c r="AP16">
+        <v>4.5</v>
       </c>
     </row>
     <row r="17">
@@ -3462,12 +5919,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Underwood</t>
+          <t>Stevens</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lauren</t>
+          <t>Haley</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3477,450 +5934,481 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H17" s="2">
-        <v>43697</v>
+        <v>43732</v>
       </c>
       <c r="J17" s="2">
-        <v>43697</v>
+        <v>43732</v>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <v>2019</v>
       </c>
       <c r="M17">
+        <v>51.8</v>
+      </c>
+      <c r="N17">
+        <v>45.2</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P17">
+        <v>6.6</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>MI-11</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>lean democratic</t>
+        </is>
+      </c>
+      <c r="U17">
+        <v>717277</v>
+      </c>
+      <c r="V17">
+        <v>76851</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="X17">
+        <v>41.2</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z17">
+        <v>20.154</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AB17">
+        <v>45.843</v>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AF17">
+        <v>45</v>
+      </c>
+      <c r="AG17">
+        <v>49.4</v>
+      </c>
+      <c r="AH17">
+        <v>47</v>
+      </c>
+      <c r="AI17">
+        <v>52.4</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>"President Trump may have used the power of his office to pressure a foreign head of state for his own personal political gain. If true, these actions represent an impeachable offense," she tweeted on September 24, also issuing a statement calling for "an impeachment inquiry."</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>2611</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>H8MI11254</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>S001215</t>
+        </is>
+      </c>
+      <c r="AP17">
+        <v>4.399999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Loebsack</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Dave</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H18" s="2">
+        <v>43732</v>
+      </c>
+      <c r="J18" s="2">
+        <v>43732</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>2019</v>
+      </c>
+      <c r="M18">
+        <v>54.8</v>
+      </c>
+      <c r="N18">
+        <v>42.6</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P18">
+        <v>12.2</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>IA-02</t>
+        </is>
+      </c>
+      <c r="U18">
+        <v>775699</v>
+      </c>
+      <c r="V18">
+        <v>52126</v>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="X18">
+        <v>37.9</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z18">
+        <v>13.71899999999999</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AB18">
+        <v>27.617</v>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AF18">
+        <v>44.4</v>
+      </c>
+      <c r="AG18">
+        <v>48.5</v>
+      </c>
+      <c r="AH18">
+        <v>55.5</v>
+      </c>
+      <c r="AI18">
+        <v>42.5</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>"I have felt the need to proceed judiciously given the high constitutional requirements of impeachment, but President Trump's actions and obstruction require this step of establishing an impeachment inquiry," he said in a news release on September 24. "It is unfortunate that we have ended up at this point."</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>1902</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>H6IA02146</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>L000565</t>
+        </is>
+      </c>
+      <c r="AP18">
+        <v>4.100000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Underwood</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Lauren</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H19" s="2">
+        <v>43697</v>
+      </c>
+      <c r="J19" s="2">
+        <v>43697</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>2019</v>
+      </c>
+      <c r="M19">
         <v>52.5</v>
       </c>
-      <c r="N17">
+      <c r="N19">
         <v>47.5</v>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P17">
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P19">
         <v>5</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>5_points_or_less</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>IL-14</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>lean republican</t>
         </is>
       </c>
-      <c r="U17">
+      <c r="U19">
         <v>725478</v>
       </c>
-      <c r="V17">
+      <c r="V19">
         <v>86449</v>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="X17">
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="X19">
         <v>38.8</v>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="Z17">
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z19">
         <v>20.733</v>
       </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AB17">
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AB19">
         <v>39.604</v>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AF17">
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AF19">
         <v>45.3</v>
       </c>
-      <c r="AG17">
+      <c r="AG19">
         <v>49.3</v>
       </c>
-      <c r="AH17">
+      <c r="AH19">
         <v>44.2</v>
       </c>
-      <c r="AI17">
+      <c r="AI19">
         <v>54.2</v>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>Underwood tweeted a statement on August 20 about her decision to support the Judiciary Committee's investigation into whether to recommend articles of impeachment._x000D_
 "I have long stated that I support the impeachment-related investigation by Chairman Nadler and the others being pursued by 5 other committee Chairs -- the American people deserve all the facts and full transparency," Underwood said.</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>1714</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>H8IL14174</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>U000040</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Gottheimer</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Josh</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NJ</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H18" s="2">
-        <v>43732</v>
-      </c>
-      <c r="J18" s="2">
-        <v>43732</v>
-      </c>
-      <c r="K18">
-        <v>9</v>
-      </c>
-      <c r="L18">
-        <v>2019</v>
-      </c>
-      <c r="M18">
-        <v>56.2</v>
-      </c>
-      <c r="N18">
-        <v>42.5</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P18">
-        <v>13.7</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>more_than_5_points</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>NJ-05</t>
-        </is>
-      </c>
-      <c r="U18">
-        <v>742080</v>
-      </c>
-      <c r="V18">
-        <v>95701</v>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="X18">
-        <v>42.9</v>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="Z18">
-        <v>29.529</v>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AB18">
-        <v>46.21</v>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AF18">
-        <v>47.7</v>
-      </c>
-      <c r="AG18">
-        <v>48.8</v>
-      </c>
-      <c r="AH18">
-        <v>48.5</v>
-      </c>
-      <c r="AI18">
-        <v>51.5</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>"The serious allegations that have surfaced about communication between President Trump and the Ukrainian President put our national security at risk and merit an immediate inquiry," he tweeted on September 24. "We must let the facts guide our work."</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>3405</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>H6NJ05171</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>G000583</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Kind</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Ron</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>WI</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M19">
-        <v>59.7</v>
-      </c>
-      <c r="N19">
-        <v>40.3</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P19">
-        <v>19.4</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>more_than_5_points</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>WI-03</t>
-        </is>
-      </c>
-      <c r="U19">
-        <v>718576</v>
-      </c>
-      <c r="V19">
-        <v>50985</v>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="X19">
-        <v>38.4</v>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="Z19">
-        <v>7.597999999999999</v>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AB19">
-        <v>24.286</v>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AF19">
-        <v>44.3</v>
-      </c>
-      <c r="AG19">
-        <v>48.8</v>
-      </c>
-      <c r="AH19">
-        <v>54.7</v>
-      </c>
-      <c r="AI19">
-        <v>43.7</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>5503</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>H6WI03099</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>K000188</t>
-        </is>
+      <c r="AP19">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -3931,12 +6419,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sherrill</t>
+          <t>Axne</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mikie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3946,19 +6434,19 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H20" s="2">
-        <v>43731</v>
+        <v>43732</v>
       </c>
       <c r="J20" s="2">
-        <v>43731</v>
+        <v>43732</v>
       </c>
       <c r="K20">
         <v>9</v>
@@ -3967,10 +6455,10 @@
         <v>2019</v>
       </c>
       <c r="M20">
-        <v>56.8</v>
+        <v>49.3</v>
       </c>
       <c r="N20">
-        <v>42.1</v>
+        <v>47.2</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -3978,11 +6466,11 @@
         </is>
       </c>
       <c r="P20">
-        <v>14.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>more_than_5_points</t>
+          <t>5_points_or_less</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -3992,19 +6480,19 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>NJ-11</t>
+          <t>IA-03</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>lean democratic</t>
+          <t>tossup</t>
         </is>
       </c>
       <c r="U20">
-        <v>740727</v>
+        <v>801132</v>
       </c>
       <c r="V20">
-        <v>103419</v>
+        <v>60261</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -4012,15 +6500,15 @@
         </is>
       </c>
       <c r="X20">
-        <v>43</v>
+        <v>36.8</v>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="Z20">
-        <v>25.437</v>
+        <v>15.72499999999999</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -4028,7 +6516,7 @@
         </is>
       </c>
       <c r="AB20">
-        <v>52.127</v>
+        <v>31.999</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4037,7 +6525,7 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
@@ -4046,16 +6534,16 @@
         </is>
       </c>
       <c r="AF20">
-        <v>47.9</v>
+        <v>44.5</v>
       </c>
       <c r="AG20">
-        <v>48.8</v>
+        <v>48</v>
       </c>
       <c r="AH20">
-        <v>47.1</v>
+        <v>51.2</v>
       </c>
       <c r="AI20">
-        <v>52.9</v>
+        <v>46.9</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -4064,28 +6552,31 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>Sherrill and six other Democrats wrote in a Washington Post op-ed on September 23 that if allegations Trump pressured the Ukrainian president to investigate Joe Biden "are true, we believe these actions represent an impeachable offense. We do not arrive at this conclusion lightly, and we call on our colleagues in Congress to consider the use of all congressional authorities available to us, including the power of 'inherent contempt' and impeachment hearings, to address these new allegations, find the truth and protect our national security."</t>
+          <t>"Beyond an abuse of power, allegations that the President threatened to leverage U.S. taxpayer dollars to extort a foreign government, if true, constitute an unequivocal violation of our federal laws and the U.S. Constitution I swore to defend," she tweeted on September 24. "For the sake of our nat'l security and our democracy, these serious allegations require independent Congressional investigation unobstructed by this Administration. Congress has a responsibility to uphold the rule of law &amp; to take appropriate steps to open an impeachment inquiry."</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>3411</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>H8NJ11142</t>
+          <t>H8IA03124</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>S001207</t>
-        </is>
+          <t>A000378</t>
+        </is>
+      </c>
+      <c r="AP20">
+        <v>3.5</v>
       </c>
     </row>
     <row r="21">
@@ -4096,17 +6587,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Maloney</t>
+          <t>Finkenauer</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sean</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Patrick</t>
+          <t>Abby</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4116,12 +6602,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H21" s="2">
@@ -4137,10 +6623,10 @@
         <v>2019</v>
       </c>
       <c r="M21">
-        <v>55.5</v>
+        <v>51</v>
       </c>
       <c r="N21">
-        <v>44.5</v>
+        <v>45.9</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -4148,7 +6634,7 @@
         </is>
       </c>
       <c r="P21">
-        <v>11</v>
+        <v>5.1</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -4157,19 +6643,24 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>NY-18</t>
+          <t>IA-01</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>lean democratic</t>
         </is>
       </c>
       <c r="U21">
-        <v>721184</v>
+        <v>769896</v>
       </c>
       <c r="V21">
-        <v>79539</v>
+        <v>55366</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -4177,7 +6668,7 @@
         </is>
       </c>
       <c r="X21">
-        <v>39.4</v>
+        <v>38.7</v>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
@@ -4185,7 +6676,7 @@
         </is>
       </c>
       <c r="Z21">
-        <v>30.371</v>
+        <v>10.87300000000001</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -4193,34 +6684,34 @@
         </is>
       </c>
       <c r="AB21">
-        <v>35.028</v>
+        <v>25.456</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AF21">
-        <v>46.6</v>
+        <v>44.6</v>
       </c>
       <c r="AG21">
-        <v>48.7</v>
+        <v>48.1</v>
       </c>
       <c r="AH21">
-        <v>51.4</v>
+        <v>55.9</v>
       </c>
       <c r="AI21">
-        <v>47.1</v>
+        <v>42.3</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -4234,23 +6725,26 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>"Unless the Intelligence Committee immediately receives both the whistleblower complaint, and the recordings of any calls -- and they dispel these charges -- I am prepared to pursue an impeachment inquiry of the President," Maloney said in a September 24 statement. "The old Trump song and dance won't cut it this time."</t>
+          <t>"I have always supported Congress and our House committees in defending our democracy and Constitution. The impeachment inquiry requested today is needed to continue that work," she said in a news release on September 24. "It's imperative we stand up for our country and hold those accountable who hurt our democracy."</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>3618</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>H2NY22139</t>
+          <t>H8IA01094</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>M001185</t>
-        </is>
+          <t>F000467</t>
+        </is>
+      </c>
+      <c r="AP21">
+        <v>3.5</v>
       </c>
     </row>
     <row r="22">
@@ -4261,12 +6755,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Loebsack</t>
+          <t>Luria</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>Elaine</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4276,7 +6770,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4285,10 +6779,10 @@
         </is>
       </c>
       <c r="H22" s="2">
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="J22" s="2">
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -4297,10 +6791,10 @@
         <v>2019</v>
       </c>
       <c r="M22">
-        <v>54.8</v>
+        <v>51.1</v>
       </c>
       <c r="N22">
-        <v>42.6</v>
+        <v>48.9</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -4308,44 +6802,49 @@
         </is>
       </c>
       <c r="P22">
-        <v>12.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>more_than_5_points</t>
+          <t>5_points_or_less</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>IA-02</t>
+          <t>VA-02</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>tossup</t>
         </is>
       </c>
       <c r="U22">
-        <v>775699</v>
+        <v>739007</v>
       </c>
       <c r="V22">
-        <v>52126</v>
+        <v>63681</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="X22">
-        <v>37.9</v>
+        <v>35.4</v>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="Z22">
-        <v>13.71899999999999</v>
+        <v>36.382</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -4353,16 +6852,16 @@
         </is>
       </c>
       <c r="AB22">
-        <v>27.617</v>
+        <v>33.197</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
@@ -4371,17 +6870,17 @@
         </is>
       </c>
       <c r="AF22">
-        <v>44.4</v>
+        <v>45</v>
       </c>
       <c r="AG22">
+        <v>48.4</v>
+      </c>
+      <c r="AH22">
+        <v>50</v>
+      </c>
+      <c r="AI22">
         <v>48.5</v>
       </c>
-      <c r="AH22">
-        <v>55.5</v>
-      </c>
-      <c r="AI22">
-        <v>42.5</v>
-      </c>
       <c r="AJ22" t="inlineStr">
         <is>
           <t>R</t>
@@ -4394,23 +6893,26 @@
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>"I have felt the need to proceed judiciously given the high constitutional requirements of impeachment, but President Trump's actions and obstruction require this step of establishing an impeachment inquiry," he said in a news release on September 24. "It is unfortunate that we have ended up at this point."</t>
+          <t>Luria and six other Democrats wrote in a Washington Post op-ed on September 23 that if allegations Trump pressured the Ukrainian president to investigate Joe Biden "are true, we believe these actions represent an impeachable offense. We do not arrive at this conclusion lightly, and we call on our colleagues in Congress to consider the use of all congressional authorities available to us, including the power of 'inherent contempt' and impeachment hearings, to address these new allegations, find the truth and protect our national security."</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>H6IA02146</t>
+          <t>H8VA02111</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>L000565</t>
-        </is>
+          <t>L000591</t>
+        </is>
+      </c>
+      <c r="AP22">
+        <v>3.399999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -4421,12 +6923,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Luria</t>
+          <t>Lamb</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Elaine</t>
+          <t>Conor</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4436,19 +6938,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H23" s="2">
-        <v>43731</v>
+        <v>43734</v>
       </c>
       <c r="J23" s="2">
-        <v>43731</v>
+        <v>43734</v>
       </c>
       <c r="K23">
         <v>9</v>
@@ -4457,10 +6959,10 @@
         <v>2019</v>
       </c>
       <c r="M23">
-        <v>51.1</v>
+        <v>56.3</v>
       </c>
       <c r="N23">
-        <v>48.9</v>
+        <v>43.7</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -4468,11 +6970,11 @@
         </is>
       </c>
       <c r="P23">
-        <v>2.2</v>
+        <v>12.6</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>5_points_or_less</t>
+          <t>more_than_5_points</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4482,19 +6984,19 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>VA-02</t>
+          <t>PA-17</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>tossup</t>
+          <t>lean democratic</t>
         </is>
       </c>
       <c r="U23">
-        <v>739007</v>
+        <v>709866</v>
       </c>
       <c r="V23">
-        <v>63681</v>
+        <v>65309.40037</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -4502,15 +7004,15 @@
         </is>
       </c>
       <c r="X23">
-        <v>35.4</v>
+        <v>44.09304029</v>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="Z23">
-        <v>36.382</v>
+        <v>11.70882955</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
@@ -4518,34 +7020,29 @@
         </is>
       </c>
       <c r="AB23">
-        <v>33.197</v>
+        <v>38.99641813</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
           <t>ABOVE</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
       <c r="AE23" t="inlineStr">
         <is>
           <t>BELOW</t>
         </is>
       </c>
       <c r="AF23">
-        <v>45</v>
+        <v>46.8</v>
       </c>
       <c r="AG23">
-        <v>48.4</v>
+        <v>49.4</v>
       </c>
       <c r="AH23">
-        <v>50</v>
+        <v>47.2</v>
       </c>
       <c r="AI23">
-        <v>48.5</v>
+        <v>51.7</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -4554,44 +7051,52 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>Luria and six other Democrats wrote in a Washington Post op-ed on September 23 that if allegations Trump pressured the Ukrainian president to investigate Joe Biden "are true, we believe these actions represent an impeachable offense. We do not arrive at this conclusion lightly, and we call on our colleagues in Congress to consider the use of all congressional authorities available to us, including the power of 'inherent contempt' and impeachment hearings, to address these new allegations, find the truth and protect our national security."</t>
+          <t>"I absolutely support Chairman Schiff's investigation and everything that he's doing," Lamb told CNN's Chris Cuomo on September 26. "The speaker put the 'impeachment inquiry' label on that on Monday so that's what it is."</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>5102</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>H8VA02111</t>
+          <t>H8PA18181</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>L000591</t>
-        </is>
+          <t>L000588</t>
+        </is>
+      </c>
+      <c r="AP23">
+        <v>2.600000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>McBath</t>
+          <t>Maloney</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lucy</t>
+          <t>Sean</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4601,19 +7106,31 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H24" s="2">
+        <v>43732</v>
+      </c>
+      <c r="J24" s="2">
+        <v>43732</v>
+      </c>
+      <c r="K24">
+        <v>9</v>
+      </c>
+      <c r="L24">
+        <v>2019</v>
       </c>
       <c r="M24">
-        <v>50.5</v>
+        <v>55.5</v>
       </c>
       <c r="N24">
-        <v>49.5</v>
+        <v>44.5</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -4621,33 +7138,28 @@
         </is>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>5_points_or_less</t>
+          <t>more_than_5_points</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>GA-06</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>lean republican</t>
+          <t>NY-18</t>
         </is>
       </c>
       <c r="U24">
-        <v>731334</v>
+        <v>721184</v>
       </c>
       <c r="V24">
-        <v>82390</v>
+        <v>79539</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -4655,7 +7167,7 @@
         </is>
       </c>
       <c r="X24">
-        <v>37.7</v>
+        <v>39.4</v>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
@@ -4663,15 +7175,15 @@
         </is>
       </c>
       <c r="Z24">
-        <v>39.012</v>
+        <v>30.371</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AB24">
-        <v>59.079</v>
+        <v>35.028</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4685,20 +7197,20 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AF24">
-        <v>46.8</v>
+        <v>46.6</v>
       </c>
       <c r="AG24">
-        <v>48.3</v>
+        <v>48.7</v>
       </c>
       <c r="AH24">
-        <v>37.4</v>
+        <v>51.4</v>
       </c>
       <c r="AI24">
-        <v>60.9</v>
+        <v>47.1</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -4707,23 +7219,31 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>"Unless the Intelligence Committee immediately receives both the whistleblower complaint, and the recordings of any calls -- and they dispel these charges -- I am prepared to pursue an impeachment inquiry of the President," Maloney said in a September 24 statement. "The old Trump song and dance won't cut it this time."</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>H8GA06393</t>
+          <t>H2NY22139</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>M001208</t>
-        </is>
+          <t>M001185</t>
+        </is>
+      </c>
+      <c r="AP24">
+        <v>2.100000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -4734,12 +7254,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Finkenauer</t>
+          <t>Pappas</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Abby</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4749,7 +7269,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>NH</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4758,107 +7278,107 @@
         </is>
       </c>
       <c r="H25" s="2">
-        <v>43732</v>
+        <v>43672</v>
       </c>
       <c r="J25" s="2">
-        <v>43732</v>
+        <v>43672</v>
       </c>
       <c r="K25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L25">
         <v>2019</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>53.6</v>
       </c>
       <c r="N25">
+        <v>45</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P25">
+        <v>8.6</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>NH-01</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>lean democratic</t>
+        </is>
+      </c>
+      <c r="U25">
+        <v>667330</v>
+      </c>
+      <c r="V25">
+        <v>69225</v>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="X25">
+        <v>42</v>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z25">
+        <v>8.730999999999995</v>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AB25">
+        <v>36.12</v>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AF25">
         <v>45.9</v>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P25">
-        <v>5.1</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>more_than_5_points</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>IA-01</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>lean democratic</t>
-        </is>
-      </c>
-      <c r="U25">
-        <v>769896</v>
-      </c>
-      <c r="V25">
-        <v>55366</v>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="X25">
-        <v>38.7</v>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="Z25">
-        <v>10.87300000000001</v>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AB25">
-        <v>25.456</v>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AF25">
-        <v>44.6</v>
-      </c>
       <c r="AG25">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="AH25">
-        <v>55.9</v>
+        <v>50</v>
       </c>
       <c r="AI25">
-        <v>42.3</v>
+        <v>48.4</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -4872,39 +7392,43 @@
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>"I have always supported Congress and our House committees in defending our democracy and Constitution. The impeachment inquiry requested today is needed to continue that work," she said in a news release on September 24. "It's imperative we stand up for our country and hold those accountable who hurt our democracy."</t>
+          <t>Pappas announced his support for an impeachment inquiry in a press release on July 26, calling it an "imperative step."
+"After weeks of careful consideration and after countless conversations with my constituents, I believe it is imperative that Congress continues its oversight work by opening an impeachment inquiry," Pappas said. "We must allow the facts to come to light in an open and transparent manner, and the relevant committees in Congress must continue to gather information, call witnesses, and respond to the questions Special Counsel Mueller was precluded from answering."</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>H8IA01094</t>
+          <t>H8NH01210</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>F000467</t>
-        </is>
+          <t>P000614</t>
+        </is>
+      </c>
+      <c r="AP25">
+        <v>1.600000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Axne</t>
+          <t>McBath</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Lucy</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4914,146 +7438,434 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H26" s="2">
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M26">
+        <v>50.5</v>
+      </c>
+      <c r="N26">
+        <v>49.5</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>GA-06</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>lean republican</t>
+        </is>
+      </c>
+      <c r="U26">
+        <v>731334</v>
+      </c>
+      <c r="V26">
+        <v>82390</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="X26">
+        <v>37.7</v>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z26">
+        <v>39.012</v>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AB26">
+        <v>59.079</v>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AF26">
+        <v>46.8</v>
+      </c>
+      <c r="AG26">
+        <v>48.3</v>
+      </c>
+      <c r="AH26">
+        <v>37.4</v>
+      </c>
+      <c r="AI26">
+        <v>60.9</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>H8GA06393</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>M001208</t>
+        </is>
+      </c>
+      <c r="AP26">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date_exact</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>43713</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>43719</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>43720</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>43730</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>43731</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
         <v>43732</v>
       </c>
-      <c r="J26" s="2">
+      <c r="B7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>43733</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>43734</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>43735</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date_exact</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p16winningparty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>43713</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>43719</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>43720</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>43730</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>43731</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>43731</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
         <v>43732</v>
       </c>
-      <c r="K26">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>43732</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>43733</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="L26">
-        <v>2019</v>
-      </c>
-      <c r="M26">
-        <v>49.3</v>
-      </c>
-      <c r="N26">
-        <v>47.2</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P26">
-        <v>2.1</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>5_points_or_less</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>IA-03</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>tossup</t>
-        </is>
-      </c>
-      <c r="U26">
-        <v>801132</v>
-      </c>
-      <c r="V26">
-        <v>60261</v>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="X26">
-        <v>36.8</v>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="Z26">
-        <v>15.72499999999999</v>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AB26">
-        <v>31.999</v>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AF26">
-        <v>44.5</v>
-      </c>
-      <c r="AG26">
-        <v>48</v>
-      </c>
-      <c r="AH26">
-        <v>51.2</v>
-      </c>
-      <c r="AI26">
-        <v>46.9</v>
-      </c>
-      <c r="AJ26" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>43733</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>"Beyond an abuse of power, allegations that the President threatened to leverage U.S. taxpayer dollars to extort a foreign government, if true, constitute an unequivocal violation of our federal laws and the U.S. Constitution I swore to defend," she tweeted on September 24. "For the sake of our nat'l security and our democracy, these serious allegations require independent Congressional investigation unobstructed by this Administration. Congress has a responsibility to uphold the rule of law &amp; to take appropriate steps to open an impeachment inquiry."</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>1903</t>
-        </is>
-      </c>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>H8IA03124</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>A000378</t>
-        </is>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>43734</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>43734</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>43735</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/groupings_dems_impeachment.xlsx
+++ b/output/groupings_dems_impeachment.xlsx
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +860,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP13"/>
+  <dimension ref="A1:AP12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2440,12 +2440,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Torres Small</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Xochitl</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2455,19 +2455,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M11">
-        <v>53</v>
+        <v>50.9</v>
       </c>
       <c r="N11">
-        <v>46.6</v>
+        <v>49.1</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -2475,11 +2475,11 @@
         </is>
       </c>
       <c r="P11">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>more_than_5_points</t>
+          <t>5_points_or_less</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2489,35 +2489,35 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>NY-11</t>
+          <t>NM-02</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>lean republican</t>
+          <t>tossup</t>
         </is>
       </c>
       <c r="U11">
-        <v>729159</v>
+        <v>698524</v>
       </c>
       <c r="V11">
-        <v>66890</v>
+        <v>41600</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="X11">
-        <v>39.2</v>
+        <v>35.9</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="Z11">
-        <v>38.413</v>
+        <v>62.273</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
@@ -2525,16 +2525,16 @@
         </is>
       </c>
       <c r="AB11">
-        <v>33.426</v>
+        <v>20.589</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2543,16 +2543,16 @@
         </is>
       </c>
       <c r="AF11">
-        <v>43.5</v>
+        <v>39.9</v>
       </c>
       <c r="AG11">
-        <v>53.3</v>
+        <v>50.1</v>
       </c>
       <c r="AH11">
-        <v>51.6</v>
+        <v>44.9</v>
       </c>
       <c r="AI11">
-        <v>47.2</v>
+        <v>51.7</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -2561,26 +2561,26 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>3611</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>H8NY11113</t>
+          <t>H8NM02248</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>R000613</t>
+          <t>T000484</t>
         </is>
       </c>
       <c r="AP11">
-        <v>9.799999999999997</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="12">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Torres Small</t>
+          <t>Van Drew</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Xochitl</t>
+          <t>Jefferson</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2615,10 +2615,10 @@
         </is>
       </c>
       <c r="M12">
-        <v>50.9</v>
+        <v>52.9</v>
       </c>
       <c r="N12">
-        <v>49.1</v>
+        <v>45.2</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -2626,11 +2626,11 @@
         </is>
       </c>
       <c r="P12">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>5_points_or_less</t>
+          <t>more_than_5_points</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2640,43 +2640,43 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>NM-02</t>
+          <t>NJ-02</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>tossup</t>
+          <t>likely democratic</t>
         </is>
       </c>
       <c r="U12">
-        <v>698524</v>
+        <v>729824</v>
       </c>
       <c r="V12">
-        <v>41600</v>
+        <v>59785</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="X12">
-        <v>35.9</v>
+        <v>41.4</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="Z12">
-        <v>62.273</v>
+        <v>33.95399999999999</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AB12">
-        <v>20.589</v>
+        <v>24.78</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2694,16 +2694,16 @@
         </is>
       </c>
       <c r="AF12">
-        <v>39.9</v>
+        <v>46</v>
       </c>
       <c r="AG12">
-        <v>50.1</v>
+        <v>50.6</v>
       </c>
       <c r="AH12">
-        <v>44.9</v>
+        <v>53.7</v>
       </c>
       <c r="AI12">
-        <v>51.7</v>
+        <v>45.5</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -2712,176 +2712,25 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>H8NM02248</t>
+          <t>H8NJ02166</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>T000484</t>
+          <t>V000133</t>
         </is>
       </c>
       <c r="AP12">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Van Drew</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Jefferson</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NJ</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M13">
-        <v>52.9</v>
-      </c>
-      <c r="N13">
-        <v>45.2</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P13">
-        <v>7.7</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>more_than_5_points</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>NJ-02</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>likely democratic</t>
-        </is>
-      </c>
-      <c r="U13">
-        <v>729824</v>
-      </c>
-      <c r="V13">
-        <v>59785</v>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="X13">
-        <v>41.4</v>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="Z13">
-        <v>33.95399999999999</v>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AB13">
-        <v>24.78</v>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AF13">
-        <v>46</v>
-      </c>
-      <c r="AG13">
-        <v>50.6</v>
-      </c>
-      <c r="AH13">
-        <v>53.7</v>
-      </c>
-      <c r="AI13">
-        <v>45.5</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>3402</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>H8NJ02166</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>V000133</t>
-        </is>
-      </c>
-      <c r="AP13">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -2942,7 +2791,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2972,7 +2821,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3017,7 +2866,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3047,7 +2896,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
@@ -3107,7 +2956,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3137,7 +2986,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -3212,7 +3061,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3242,7 +3091,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -3312,7 +3161,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3342,7 +3191,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4479,7 +4328,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4506,6 +4355,18 @@
         <is>
           <t>11</t>
         </is>
+      </c>
+      <c r="H8" s="2">
+        <v>43741</v>
+      </c>
+      <c r="J8" s="2">
+        <v>43741</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>2019</v>
       </c>
       <c r="M8">
         <v>53</v>

--- a/output/groupings_dems_impeachment.xlsx
+++ b/output/groupings_dems_impeachment.xlsx
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +860,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP12"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1987,12 +1987,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>McAdams</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>C.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2002,19 +2007,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UT</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M8">
-        <v>50.1</v>
+        <v>52.1</v>
       </c>
       <c r="N8">
-        <v>49.9</v>
+        <v>47.9</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2022,7 +2027,7 @@
         </is>
       </c>
       <c r="P8">
-        <v>0.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -2031,75 +2036,70 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>UT-04</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>tossup</t>
+          <t>MN-07</t>
         </is>
       </c>
       <c r="U8">
-        <v>757607</v>
+        <v>663338</v>
       </c>
       <c r="V8">
-        <v>65081</v>
+        <v>52930</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="X8">
+        <v>40.7</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="Z8">
+        <v>10.608</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AB8">
+        <v>21.486</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>ABOVE</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>BELOW</t>
+        </is>
+      </c>
+      <c r="AF8">
         <v>30.8</v>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="Z8">
-        <v>24.46599999999999</v>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AB8">
-        <v>28.153</v>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AF8">
-        <v>32.4</v>
-      </c>
       <c r="AG8">
-        <v>39.1</v>
+        <v>61.4</v>
       </c>
       <c r="AH8">
-        <v>30.4</v>
+        <v>44</v>
       </c>
       <c r="AI8">
-        <v>67.59999999999999</v>
+        <v>53.7</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -2113,21 +2113,21 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>4904</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>H8UT04053</t>
+          <t>H2MN07014</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>M001209</t>
+          <t>P000258</t>
         </is>
       </c>
       <c r="AP8">
-        <v>6.700000000000003</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="9">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>McBath</t>
+          <t>Torres Small</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lucy</t>
+          <t>Xochitl</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2153,19 +2153,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M9">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="N9">
-        <v>49.5</v>
+        <v>49.1</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -2187,35 +2187,35 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>GA-06</t>
+          <t>NM-02</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>lean republican</t>
+          <t>tossup</t>
         </is>
       </c>
       <c r="U9">
-        <v>731334</v>
+        <v>698524</v>
       </c>
       <c r="V9">
-        <v>82390</v>
+        <v>41600</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="X9">
-        <v>37.7</v>
+        <v>35.9</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="Z9">
-        <v>39.012</v>
+        <v>62.273</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -2223,34 +2223,34 @@
         </is>
       </c>
       <c r="AB9">
-        <v>59.079</v>
+        <v>20.589</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AF9">
-        <v>46.8</v>
+        <v>39.9</v>
       </c>
       <c r="AG9">
-        <v>48.3</v>
+        <v>50.1</v>
       </c>
       <c r="AH9">
-        <v>37.4</v>
+        <v>44.9</v>
       </c>
       <c r="AI9">
-        <v>60.9</v>
+        <v>51.7</v>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
@@ -2264,21 +2264,21 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>H8GA06393</t>
+          <t>H8NM02248</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>M001208</t>
+          <t>T000484</t>
         </is>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="10">
@@ -2289,17 +2289,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Van Drew</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>C.</t>
+          <t>Jefferson</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2309,19 +2304,19 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M10">
-        <v>52.1</v>
+        <v>52.9</v>
       </c>
       <c r="N10">
-        <v>47.9</v>
+        <v>45.2</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -2329,36 +2324,41 @@
         </is>
       </c>
       <c r="P10">
-        <v>4.2</v>
+        <v>7.7</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>5_points_or_less</t>
+          <t>more_than_5_points</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>MN-07</t>
+          <t>NJ-02</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>likely democratic</t>
         </is>
       </c>
       <c r="U10">
-        <v>663338</v>
+        <v>729824</v>
       </c>
       <c r="V10">
-        <v>52930</v>
+        <v>59785</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="X10">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="Z10">
-        <v>10.608</v>
+        <v>33.95399999999999</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="AB10">
-        <v>21.486</v>
+        <v>24.78</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -2392,16 +2392,16 @@
         </is>
       </c>
       <c r="AF10">
-        <v>30.8</v>
+        <v>46</v>
       </c>
       <c r="AG10">
-        <v>61.4</v>
+        <v>50.6</v>
       </c>
       <c r="AH10">
-        <v>44</v>
+        <v>53.7</v>
       </c>
       <c r="AI10">
-        <v>53.7</v>
+        <v>45.5</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -2410,327 +2410,25 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>H2MN07014</t>
+          <t>H8NJ02166</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>P000258</t>
+          <t>V000133</t>
         </is>
       </c>
       <c r="AP10">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Torres Small</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Xochitl</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M11">
-        <v>50.9</v>
-      </c>
-      <c r="N11">
-        <v>49.1</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P11">
-        <v>1.8</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>5_points_or_less</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>NM-02</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>tossup</t>
-        </is>
-      </c>
-      <c r="U11">
-        <v>698524</v>
-      </c>
-      <c r="V11">
-        <v>41600</v>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="X11">
-        <v>35.9</v>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="Z11">
-        <v>62.273</v>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AB11">
-        <v>20.589</v>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AF11">
-        <v>39.9</v>
-      </c>
-      <c r="AG11">
-        <v>50.1</v>
-      </c>
-      <c r="AH11">
-        <v>44.9</v>
-      </c>
-      <c r="AI11">
-        <v>51.7</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>3502</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>H8NM02248</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>T000484</t>
-        </is>
-      </c>
-      <c r="AP11">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Van Drew</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Jefferson</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NJ</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M12">
-        <v>52.9</v>
-      </c>
-      <c r="N12">
-        <v>45.2</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P12">
-        <v>7.7</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>more_than_5_points</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>NJ-02</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>likely democratic</t>
-        </is>
-      </c>
-      <c r="U12">
-        <v>729824</v>
-      </c>
-      <c r="V12">
-        <v>59785</v>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="X12">
-        <v>41.4</v>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="Z12">
-        <v>33.95399999999999</v>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AB12">
-        <v>24.78</v>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AF12">
-        <v>46</v>
-      </c>
-      <c r="AG12">
-        <v>50.6</v>
-      </c>
-      <c r="AH12">
-        <v>53.7</v>
-      </c>
-      <c r="AI12">
-        <v>45.5</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>3402</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>H8NJ02166</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>V000133</t>
-        </is>
-      </c>
-      <c r="AP12">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -2776,7 +2474,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2806,7 +2504,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
@@ -2866,7 +2564,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2881,7 +2579,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2896,7 +2594,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -2911,7 +2609,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2956,7 +2654,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2971,7 +2669,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2986,7 +2684,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5">
@@ -3001,7 +2699,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3061,7 +2759,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3091,7 +2789,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
@@ -3146,7 +2844,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3176,7 +2874,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -4823,7 +4521,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4850,6 +4548,18 @@
         <is>
           <t>4</t>
         </is>
+      </c>
+      <c r="H11" s="2">
+        <v>43742</v>
+      </c>
+      <c r="J11" s="2">
+        <v>43742</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>2019</v>
       </c>
       <c r="M11">
         <v>50.1</v>
@@ -7279,7 +6989,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -7306,6 +7016,18 @@
         <is>
           <t>6</t>
         </is>
+      </c>
+      <c r="H26" s="2">
+        <v>43742</v>
+      </c>
+      <c r="J26" s="2">
+        <v>43742</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>2019</v>
       </c>
       <c r="M26">
         <v>50.5</v>

--- a/output/groupings_dems_impeachment.xlsx
+++ b/output/groupings_dems_impeachment.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,7 +392,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -401,28 +401,28 @@
         </is>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -431,21 +431,6 @@
         </is>
       </c>
       <c r="C4">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C5">
         <v>23</v>
       </c>
     </row>
@@ -860,7 +845,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:AP9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1690,17 +1675,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Kind</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eddie</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Bernice</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1710,19 +1690,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>WI</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M6">
-        <v>91.09999999999999</v>
+        <v>59.7</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>40.3</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1730,7 +1710,7 @@
         </is>
       </c>
       <c r="P6">
-        <v>91.09999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -1744,14 +1724,14 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>TX-30</t>
+          <t>WI-03</t>
         </is>
       </c>
       <c r="U6">
-        <v>745784</v>
+        <v>718576</v>
       </c>
       <c r="V6">
-        <v>42708</v>
+        <v>50985</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -1759,23 +1739,23 @@
         </is>
       </c>
       <c r="X6">
-        <v>32.8</v>
+        <v>38.4</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="Z6">
-        <v>84.529</v>
+        <v>7.597999999999999</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AB6">
-        <v>19.847</v>
+        <v>24.286</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1784,29 +1764,29 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AF6">
-        <v>79.09999999999999</v>
+        <v>44.3</v>
       </c>
       <c r="AG6">
-        <v>18.3</v>
+        <v>48.8</v>
       </c>
       <c r="AH6">
-        <v>79.59999999999999</v>
+        <v>54.7</v>
       </c>
       <c r="AI6">
-        <v>19.6</v>
+        <v>43.7</v>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1816,21 +1796,21 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>4830</t>
+          <t>5503</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>H2TX00015</t>
+          <t>H6WI03099</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>J000126</t>
+          <t>K000188</t>
         </is>
       </c>
       <c r="AP6">
-        <v>-60.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7">
@@ -1841,12 +1821,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kind</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>C.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1856,19 +1841,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M7">
-        <v>59.7</v>
+        <v>52.1</v>
       </c>
       <c r="N7">
-        <v>40.3</v>
+        <v>47.9</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1876,11 +1861,11 @@
         </is>
       </c>
       <c r="P7">
-        <v>19.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>more_than_5_points</t>
+          <t>5_points_or_less</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1890,14 +1875,14 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>WI-03</t>
+          <t>MN-07</t>
         </is>
       </c>
       <c r="U7">
-        <v>718576</v>
+        <v>663338</v>
       </c>
       <c r="V7">
-        <v>50985</v>
+        <v>52930</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1905,7 +1890,7 @@
         </is>
       </c>
       <c r="X7">
-        <v>38.4</v>
+        <v>40.7</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
@@ -1913,7 +1898,7 @@
         </is>
       </c>
       <c r="Z7">
-        <v>7.597999999999999</v>
+        <v>10.608</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
@@ -1921,7 +1906,7 @@
         </is>
       </c>
       <c r="AB7">
-        <v>24.286</v>
+        <v>21.486</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1939,16 +1924,16 @@
         </is>
       </c>
       <c r="AF7">
-        <v>44.3</v>
+        <v>30.8</v>
       </c>
       <c r="AG7">
-        <v>48.8</v>
+        <v>61.4</v>
       </c>
       <c r="AH7">
-        <v>54.7</v>
+        <v>44</v>
       </c>
       <c r="AI7">
-        <v>43.7</v>
+        <v>53.7</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1957,26 +1942,26 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>5503</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>H6WI03099</t>
+          <t>H2MN07014</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>K000188</t>
+          <t>P000258</t>
         </is>
       </c>
       <c r="AP7">
-        <v>4.5</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="8">
@@ -1987,17 +1972,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Torres Small</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>C.</t>
+          <t>Xochitl</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2007,19 +1987,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M8">
-        <v>52.1</v>
+        <v>50.9</v>
       </c>
       <c r="N8">
-        <v>47.9</v>
+        <v>49.1</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2027,7 +2007,7 @@
         </is>
       </c>
       <c r="P8">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -2036,19 +2016,24 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>MN-07</t>
+          <t>NM-02</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>tossup</t>
         </is>
       </c>
       <c r="U8">
-        <v>663338</v>
+        <v>698524</v>
       </c>
       <c r="V8">
-        <v>52930</v>
+        <v>41600</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -2056,23 +2041,23 @@
         </is>
       </c>
       <c r="X8">
-        <v>40.7</v>
+        <v>35.9</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="Z8">
-        <v>10.608</v>
+        <v>62.273</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AB8">
-        <v>21.486</v>
+        <v>20.589</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2090,16 +2075,16 @@
         </is>
       </c>
       <c r="AF8">
-        <v>30.8</v>
+        <v>39.9</v>
       </c>
       <c r="AG8">
-        <v>61.4</v>
+        <v>50.1</v>
       </c>
       <c r="AH8">
-        <v>44</v>
+        <v>44.9</v>
       </c>
       <c r="AI8">
-        <v>53.7</v>
+        <v>51.7</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -2113,21 +2098,21 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>H2MN07014</t>
+          <t>H8NM02248</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>P000258</t>
+          <t>T000484</t>
         </is>
       </c>
       <c r="AP8">
-        <v>30.6</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="9">
@@ -2138,12 +2123,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Torres Small</t>
+          <t>Van Drew</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Xochitl</t>
+          <t>Jefferson</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2153,7 +2138,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2162,10 +2147,10 @@
         </is>
       </c>
       <c r="M9">
-        <v>50.9</v>
+        <v>52.9</v>
       </c>
       <c r="N9">
-        <v>49.1</v>
+        <v>45.2</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -2173,11 +2158,11 @@
         </is>
       </c>
       <c r="P9">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>5_points_or_less</t>
+          <t>more_than_5_points</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2187,43 +2172,43 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>NM-02</t>
+          <t>NJ-02</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>tossup</t>
+          <t>likely democratic</t>
         </is>
       </c>
       <c r="U9">
-        <v>698524</v>
+        <v>729824</v>
       </c>
       <c r="V9">
-        <v>41600</v>
+        <v>59785</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="X9">
-        <v>35.9</v>
+        <v>41.4</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="Z9">
-        <v>62.273</v>
+        <v>33.95399999999999</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AB9">
-        <v>20.589</v>
+        <v>24.78</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2232,7 +2217,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -2241,16 +2226,16 @@
         </is>
       </c>
       <c r="AF9">
-        <v>39.9</v>
+        <v>46</v>
       </c>
       <c r="AG9">
-        <v>50.1</v>
+        <v>50.6</v>
       </c>
       <c r="AH9">
-        <v>44.9</v>
+        <v>53.7</v>
       </c>
       <c r="AI9">
-        <v>51.7</v>
+        <v>45.5</v>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
@@ -2259,176 +2244,25 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>H8NM02248</t>
+          <t>H8NJ02166</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>T000484</t>
+          <t>V000133</t>
         </is>
       </c>
       <c r="AP9">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Van Drew</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Jefferson</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NJ</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M10">
-        <v>52.9</v>
-      </c>
-      <c r="N10">
-        <v>45.2</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P10">
-        <v>7.7</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>more_than_5_points</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>NJ-02</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>likely democratic</t>
-        </is>
-      </c>
-      <c r="U10">
-        <v>729824</v>
-      </c>
-      <c r="V10">
-        <v>59785</v>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="X10">
-        <v>41.4</v>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="Z10">
-        <v>33.95399999999999</v>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AB10">
-        <v>24.78</v>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AF10">
-        <v>46</v>
-      </c>
-      <c r="AG10">
-        <v>50.6</v>
-      </c>
-      <c r="AH10">
-        <v>53.7</v>
-      </c>
-      <c r="AI10">
-        <v>45.5</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>3402</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>H8NJ02166</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>V000133</t>
-        </is>
-      </c>
-      <c r="AP10">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -2474,7 +2308,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2504,7 +2338,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
@@ -2579,7 +2413,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2609,7 +2443,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +2488,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2684,7 +2518,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
@@ -2759,7 +2593,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2789,7 +2623,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6">
@@ -2859,7 +2693,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2889,7 +2723,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/output/groupings_dems_impeachment.xlsx
+++ b/output/groupings_dems_impeachment.xlsx
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +845,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AP8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1972,12 +1972,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Torres Small</t>
+          <t>Van Drew</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Xochitl</t>
+          <t>Jefferson</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="M8">
-        <v>50.9</v>
+        <v>52.9</v>
       </c>
       <c r="N8">
-        <v>49.1</v>
+        <v>45.2</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2007,11 +2007,11 @@
         </is>
       </c>
       <c r="P8">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>5_points_or_less</t>
+          <t>more_than_5_points</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2021,43 +2021,43 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>NM-02</t>
+          <t>NJ-02</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>tossup</t>
+          <t>likely democratic</t>
         </is>
       </c>
       <c r="U8">
-        <v>698524</v>
+        <v>729824</v>
       </c>
       <c r="V8">
-        <v>41600</v>
+        <v>59785</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="X8">
-        <v>35.9</v>
+        <v>41.4</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="Z8">
-        <v>62.273</v>
+        <v>33.95399999999999</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AB8">
-        <v>20.589</v>
+        <v>24.78</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -2075,16 +2075,16 @@
         </is>
       </c>
       <c r="AF8">
-        <v>39.9</v>
+        <v>46</v>
       </c>
       <c r="AG8">
-        <v>50.1</v>
+        <v>50.6</v>
       </c>
       <c r="AH8">
-        <v>44.9</v>
+        <v>53.7</v>
       </c>
       <c r="AI8">
-        <v>51.7</v>
+        <v>45.5</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -2093,176 +2093,25 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>H8NM02248</t>
+          <t>H8NJ02166</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>T000484</t>
+          <t>V000133</t>
         </is>
       </c>
       <c r="AP8">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Van Drew</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Jefferson</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NJ</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M9">
-        <v>52.9</v>
-      </c>
-      <c r="N9">
-        <v>45.2</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P9">
-        <v>7.7</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>more_than_5_points</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>NJ-02</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>likely democratic</t>
-        </is>
-      </c>
-      <c r="U9">
-        <v>729824</v>
-      </c>
-      <c r="V9">
-        <v>59785</v>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="X9">
-        <v>41.4</v>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="Z9">
-        <v>33.95399999999999</v>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AB9">
-        <v>24.78</v>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AF9">
-        <v>46</v>
-      </c>
-      <c r="AG9">
-        <v>50.6</v>
-      </c>
-      <c r="AH9">
-        <v>53.7</v>
-      </c>
-      <c r="AI9">
-        <v>45.5</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>3402</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>H8NJ02166</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>V000133</t>
-        </is>
-      </c>
-      <c r="AP9">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -2323,7 +2172,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2353,7 +2202,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2262,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2443,7 +2292,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2488,7 +2337,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2518,7 +2367,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
@@ -2578,7 +2427,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2608,7 +2457,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -2678,7 +2527,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2708,7 +2557,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -3709,7 +3558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3736,6 +3585,18 @@
         <is>
           <t>2</t>
         </is>
+      </c>
+      <c r="H7" s="2">
+        <v>43748</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43748</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>2019</v>
       </c>
       <c r="M7">
         <v>50.9</v>
@@ -3836,6 +3697,11 @@
       <c r="AK7" t="inlineStr">
         <is>
           <t>R</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>"To be very clear, I have not reached judgment on the president’s actions, nor on the appropriate response, but I need the facts to make these weighty decisions."</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
